--- a/config.xlsx
+++ b/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="projects" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t xml:space="preserve">Проект</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve">park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет</t>
   </si>
   <si>
     <t xml:space="preserve">building</t>
@@ -108,6 +111,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -197,9 +201,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,10 +314,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -327,7 +331,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -343,14 +347,14 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,12 +464,12 @@
         <v>0.001</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.05</v>
@@ -477,7 +481,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
